--- a/team_specific_matrix/St. Bonaventure_B.xlsx
+++ b/team_specific_matrix/St. Bonaventure_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2245762711864407</v>
+        <v>0.2148148148148148</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.5148148148148148</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03813559322033899</v>
+        <v>0.04074074074074074</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1313559322033898</v>
+        <v>0.1259259259259259</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1059322033898305</v>
+        <v>0.1037037037037037</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008403361344537815</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02521008403361345</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8067226890756303</v>
+        <v>0.7730496453900709</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1596638655462185</v>
+        <v>0.1843971631205674</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.696969696969697</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08045977011494253</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005747126436781609</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08620689655172414</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1954022988505747</v>
+        <v>0.1961722488038277</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04022988505747126</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1494252873563219</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="R6">
-        <v>0.08620689655172414</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="S6">
-        <v>0.3563218390804598</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09859154929577464</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02816901408450704</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04929577464788732</v>
+        <v>0.04191616766467066</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1126760563380282</v>
+        <v>0.1197604790419162</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02816901408450704</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.176056338028169</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="R7">
-        <v>0.07042253521126761</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="S7">
-        <v>0.4366197183098591</v>
+        <v>0.4550898203592814</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1242937853107345</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02542372881355932</v>
+        <v>0.024330900243309</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06779661016949153</v>
+        <v>0.07542579075425791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08757062146892655</v>
+        <v>0.09975669099756691</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01977401129943503</v>
+        <v>0.0194647201946472</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1525423728813559</v>
+        <v>0.1484184914841849</v>
       </c>
       <c r="R8">
-        <v>0.07062146892655367</v>
+        <v>0.0827250608272506</v>
       </c>
       <c r="S8">
-        <v>0.4519774011299435</v>
+        <v>0.4379562043795621</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1197604790419162</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01197604790419162</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0718562874251497</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07784431137724551</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01796407185628742</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1856287425149701</v>
+        <v>0.1804123711340206</v>
       </c>
       <c r="R9">
-        <v>0.09580838323353294</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="S9">
-        <v>0.4191616766467066</v>
+        <v>0.4020618556701031</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1036513545347468</v>
+        <v>0.1025390625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02237926972909305</v>
+        <v>0.0234375</v>
       </c>
       <c r="E10">
-        <v>0.001177856301531213</v>
+        <v>0.0009765625</v>
       </c>
       <c r="F10">
-        <v>0.08362779740871613</v>
+        <v>0.080078125</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1001177856301531</v>
+        <v>0.099609375</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01060070671378092</v>
+        <v>0.013671875</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2096584216725559</v>
+        <v>0.2158203125</v>
       </c>
       <c r="R10">
-        <v>0.08716136631330977</v>
+        <v>0.0859375</v>
       </c>
       <c r="S10">
-        <v>0.3816254416961131</v>
+        <v>0.3779296875</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1036269430051813</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06735751295336788</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="K11">
-        <v>0.150259067357513</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="L11">
-        <v>0.6735751295336787</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005181347150259068</v>
+        <v>0.004273504273504274</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.753731343283582</v>
+        <v>0.7468354430379747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014925373134328</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01492537313432836</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02985074626865672</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.34375</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03205128205128205</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="I15">
-        <v>0.0576923076923077</v>
+        <v>0.06951871657754011</v>
       </c>
       <c r="J15">
-        <v>0.358974358974359</v>
+        <v>0.374331550802139</v>
       </c>
       <c r="K15">
-        <v>0.0576923076923077</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00641025641025641</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="N15">
-        <v>0.00641025641025641</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="O15">
-        <v>0.08974358974358974</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2371794871794872</v>
+        <v>0.2459893048128342</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01398601398601399</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2307692307692308</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="I16">
-        <v>0.06993006993006994</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J16">
-        <v>0.3216783216783217</v>
+        <v>0.3353658536585366</v>
       </c>
       <c r="K16">
-        <v>0.1258741258741259</v>
+        <v>0.1280487804878049</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01398601398601399</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06293706293706294</v>
+        <v>0.05487804878048781</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1608391608391608</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01282051282051282</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1891025641025641</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="I17">
-        <v>0.1025641025641026</v>
+        <v>0.09946236559139784</v>
       </c>
       <c r="J17">
-        <v>0.3942307692307692</v>
+        <v>0.3897849462365591</v>
       </c>
       <c r="K17">
-        <v>0.1153846153846154</v>
+        <v>0.1155913978494624</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02243589743589744</v>
+        <v>0.02419354838709677</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04807692307692308</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1153846153846154</v>
+        <v>0.1155913978494624</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02142857142857143</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1714285714285714</v>
+        <v>0.1686046511627907</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J18">
-        <v>0.4142857142857143</v>
+        <v>0.436046511627907</v>
       </c>
       <c r="K18">
-        <v>0.07142857142857142</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02857142857142857</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1214285714285714</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008429926238145416</v>
+        <v>0.008936550491510277</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2307692307692308</v>
+        <v>0.226988382484361</v>
       </c>
       <c r="I19">
-        <v>0.1095890410958904</v>
+        <v>0.1054512957998213</v>
       </c>
       <c r="J19">
-        <v>0.3498419388830348</v>
+        <v>0.3512064343163539</v>
       </c>
       <c r="K19">
-        <v>0.0958904109589041</v>
+        <v>0.1000893655049151</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02107481559536354</v>
+        <v>0.02234137622877569</v>
       </c>
       <c r="N19">
-        <v>0.001053740779768177</v>
+        <v>0.0008936550491510277</v>
       </c>
       <c r="O19">
-        <v>0.0684931506849315</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1148577449947313</v>
+        <v>0.1143878462913315</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/St. Bonaventure_B.xlsx
+++ b/team_specific_matrix/St. Bonaventure_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2148148148148148</v>
+        <v>0.2150170648464164</v>
       </c>
       <c r="C2">
-        <v>0.5148148148148148</v>
+        <v>0.515358361774744</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04074074074074074</v>
+        <v>0.03754266211604096</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1259259259259259</v>
+        <v>0.1262798634812287</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1037037037037037</v>
+        <v>0.10580204778157</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01418439716312057</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C3">
-        <v>0.007092198581560284</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02127659574468085</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7730496453900709</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1843971631205674</v>
+        <v>0.2012987012987013</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07655502392344497</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004784688995215311</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09569377990430622</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1961722488038277</v>
+        <v>0.1938325991189427</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03827751196172249</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.138755980861244</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="R6">
-        <v>0.08133971291866028</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="S6">
-        <v>0.3684210526315789</v>
+        <v>0.3612334801762114</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09580838323353294</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02395209580838323</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04191616766467066</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1197604790419162</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02395209580838323</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1676646706586826</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="R7">
-        <v>0.0718562874251497</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="S7">
-        <v>0.4550898203592814</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1119221411192214</v>
+        <v>0.1106094808126411</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.024330900243309</v>
+        <v>0.02257336343115124</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07542579075425791</v>
+        <v>0.0744920993227991</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09975669099756691</v>
+        <v>0.108352144469526</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0194647201946472</v>
+        <v>0.01805869074492099</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1484184914841849</v>
+        <v>0.1467268623024831</v>
       </c>
       <c r="R8">
-        <v>0.0827250608272506</v>
+        <v>0.08126410835214447</v>
       </c>
       <c r="S8">
-        <v>0.4379562043795621</v>
+        <v>0.4379232505643341</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1237113402061856</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0154639175257732</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F9">
-        <v>0.06701030927835051</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08762886597938144</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0154639175257732</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1804123711340206</v>
+        <v>0.1699029126213592</v>
       </c>
       <c r="R9">
-        <v>0.1082474226804124</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="S9">
-        <v>0.4020618556701031</v>
+        <v>0.412621359223301</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1025390625</v>
+        <v>0.1043165467625899</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0234375</v>
+        <v>0.02338129496402878</v>
       </c>
       <c r="E10">
-        <v>0.0009765625</v>
+        <v>0.0008992805755395684</v>
       </c>
       <c r="F10">
-        <v>0.080078125</v>
+        <v>0.07733812949640288</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.099609375</v>
+        <v>0.1016187050359712</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.013671875</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2158203125</v>
+        <v>0.210431654676259</v>
       </c>
       <c r="R10">
-        <v>0.0859375</v>
+        <v>0.08633093525179857</v>
       </c>
       <c r="S10">
-        <v>0.3779296875</v>
+        <v>0.381294964028777</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1153846153846154</v>
+        <v>0.1124031007751938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06837606837606838</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K11">
-        <v>0.1581196581196581</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L11">
-        <v>0.6538461538461539</v>
+        <v>0.6589147286821705</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004273504273504274</v>
+        <v>0.003875968992248062</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7468354430379747</v>
+        <v>0.7556818181818182</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2025316455696203</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02531645569620253</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02531645569620253</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6578947368421053</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3421052631578947</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0267379679144385</v>
+        <v>0.025</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1390374331550802</v>
+        <v>0.14</v>
       </c>
       <c r="I15">
-        <v>0.06951871657754011</v>
+        <v>0.075</v>
       </c>
       <c r="J15">
-        <v>0.374331550802139</v>
+        <v>0.38</v>
       </c>
       <c r="K15">
-        <v>0.053475935828877</v>
+        <v>0.05</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0053475935828877</v>
+        <v>0.005</v>
       </c>
       <c r="N15">
-        <v>0.0053475935828877</v>
+        <v>0.005</v>
       </c>
       <c r="O15">
-        <v>0.08021390374331551</v>
+        <v>0.075</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2459893048128342</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01219512195121951</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2317073170731707</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="I16">
-        <v>0.07317073170731707</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="J16">
-        <v>0.3353658536585366</v>
+        <v>0.3371428571428571</v>
       </c>
       <c r="K16">
-        <v>0.1280487804878049</v>
+        <v>0.12</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01219512195121951</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05487804878048781</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1524390243902439</v>
+        <v>0.1542857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01075268817204301</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1854838709677419</v>
+        <v>0.1852791878172589</v>
       </c>
       <c r="I17">
-        <v>0.09946236559139784</v>
+        <v>0.09898477157360407</v>
       </c>
       <c r="J17">
-        <v>0.3897849462365591</v>
+        <v>0.383248730964467</v>
       </c>
       <c r="K17">
-        <v>0.1155913978494624</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02419354838709677</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05913978494623656</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1155913978494624</v>
+        <v>0.1192893401015228</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02906976744186046</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1686046511627907</v>
+        <v>0.1542553191489362</v>
       </c>
       <c r="I18">
-        <v>0.09302325581395349</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J18">
-        <v>0.436046511627907</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="K18">
-        <v>0.06395348837209303</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="O18">
-        <v>0.06395348837209303</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1220930232558139</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008936550491510277</v>
+        <v>0.01065573770491803</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.226988382484361</v>
+        <v>0.2270491803278689</v>
       </c>
       <c r="I19">
-        <v>0.1054512957998213</v>
+        <v>0.1024590163934426</v>
       </c>
       <c r="J19">
-        <v>0.3512064343163539</v>
+        <v>0.35</v>
       </c>
       <c r="K19">
-        <v>0.1000893655049151</v>
+        <v>0.1024590163934426</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02234137622877569</v>
+        <v>0.02377049180327869</v>
       </c>
       <c r="N19">
-        <v>0.0008936550491510277</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="O19">
-        <v>0.06970509383378017</v>
+        <v>0.06885245901639345</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1143878462913315</v>
+        <v>0.1139344262295082</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/St. Bonaventure_B.xlsx
+++ b/team_specific_matrix/St. Bonaventure_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2150170648464164</v>
+        <v>0.2098360655737705</v>
       </c>
       <c r="C2">
-        <v>0.515358361774744</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03754266211604096</v>
+        <v>0.03606557377049181</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1262798634812287</v>
+        <v>0.1213114754098361</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.10580204778157</v>
+        <v>0.1081967213114754</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01298701298701299</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C3">
-        <v>0.01298701298701299</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01948051948051948</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7532467532467533</v>
+        <v>0.754601226993865</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2012987012987013</v>
+        <v>0.196319018404908</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6590909090909091</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3409090909090909</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07929515418502203</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00881057268722467</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1013215859030837</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1938325991189427</v>
+        <v>0.1991525423728814</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03524229074889868</v>
+        <v>0.03813559322033899</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1365638766519824</v>
+        <v>0.1313559322033898</v>
       </c>
       <c r="R6">
-        <v>0.08370044052863436</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="S6">
-        <v>0.3612334801762114</v>
+        <v>0.3601694915254237</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08465608465608465</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02645502645502645</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05291005291005291</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.126984126984127</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02116402116402116</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.164021164021164</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="R7">
-        <v>0.07936507936507936</v>
+        <v>0.078125</v>
       </c>
       <c r="S7">
-        <v>0.4444444444444444</v>
+        <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1106094808126411</v>
+        <v>0.1067538126361656</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02257336343115124</v>
+        <v>0.02178649237472767</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0744920993227991</v>
+        <v>0.07625272331154684</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.108352144469526</v>
+        <v>0.1089324618736384</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01805869074492099</v>
+        <v>0.01742919389978214</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1467268623024831</v>
+        <v>0.1459694989106754</v>
       </c>
       <c r="R8">
-        <v>0.08126410835214447</v>
+        <v>0.08278867102396514</v>
       </c>
       <c r="S8">
-        <v>0.4379232505643341</v>
+        <v>0.4400871459694989</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1262135922330097</v>
+        <v>0.1382488479262673</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01456310679611651</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="E9">
-        <v>0.004854368932038835</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F9">
-        <v>0.06310679611650485</v>
+        <v>0.05990783410138249</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0825242718446602</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01941747572815534</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1699029126213592</v>
+        <v>0.1658986175115207</v>
       </c>
       <c r="R9">
-        <v>0.1067961165048544</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="S9">
-        <v>0.412621359223301</v>
+        <v>0.4009216589861751</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1043165467625899</v>
+        <v>0.1060869565217391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02338129496402878</v>
+        <v>0.02260869565217391</v>
       </c>
       <c r="E10">
-        <v>0.0008992805755395684</v>
+        <v>0.0008695652173913044</v>
       </c>
       <c r="F10">
-        <v>0.07733812949640288</v>
+        <v>0.07739130434782608</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1016187050359712</v>
+        <v>0.09913043478260869</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01438848920863309</v>
+        <v>0.01391304347826087</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.210431654676259</v>
+        <v>0.2095652173913043</v>
       </c>
       <c r="R10">
-        <v>0.08633093525179857</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="S10">
-        <v>0.381294964028777</v>
+        <v>0.3791304347826087</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1124031007751938</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06976744186046512</v>
+        <v>0.06792452830188679</v>
       </c>
       <c r="K11">
-        <v>0.1550387596899225</v>
+        <v>0.1584905660377358</v>
       </c>
       <c r="L11">
-        <v>0.6589147286821705</v>
+        <v>0.6528301886792452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003875968992248062</v>
+        <v>0.003773584905660377</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7556818181818182</v>
+        <v>0.7611111111111111</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1931818181818182</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02840909090909091</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.14</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="I15">
-        <v>0.075</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="J15">
-        <v>0.38</v>
+        <v>0.3853658536585366</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="N15">
-        <v>0.005</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="O15">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.245</v>
+        <v>0.2390243902439024</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01142857142857143</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2342857142857143</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="I16">
-        <v>0.07428571428571429</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="J16">
-        <v>0.3371428571428571</v>
+        <v>0.3497267759562842</v>
       </c>
       <c r="K16">
-        <v>0.12</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01142857142857143</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05714285714285714</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1542857142857143</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01269035532994924</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1852791878172589</v>
+        <v>0.1806930693069307</v>
       </c>
       <c r="I17">
-        <v>0.09898477157360407</v>
+        <v>0.1014851485148515</v>
       </c>
       <c r="J17">
-        <v>0.383248730964467</v>
+        <v>0.3886138613861386</v>
       </c>
       <c r="K17">
-        <v>0.116751269035533</v>
+        <v>0.1163366336633663</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02538071065989848</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0583756345177665</v>
+        <v>0.05693069306930693</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1192893401015228</v>
+        <v>0.1163366336633663</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02659574468085106</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1542553191489362</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="I18">
-        <v>0.0851063829787234</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="J18">
-        <v>0.4574468085106383</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="K18">
-        <v>0.0797872340425532</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02127659574468085</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N18">
-        <v>0.005319148936170213</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1117021276595745</v>
+        <v>0.1089108910891089</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01065573770491803</v>
+        <v>0.01115537848605578</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2270491803278689</v>
+        <v>0.2294820717131474</v>
       </c>
       <c r="I19">
-        <v>0.1024590163934426</v>
+        <v>0.1035856573705179</v>
       </c>
       <c r="J19">
-        <v>0.35</v>
+        <v>0.349003984063745</v>
       </c>
       <c r="K19">
-        <v>0.1024590163934426</v>
+        <v>0.101195219123506</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02377049180327869</v>
+        <v>0.02310756972111554</v>
       </c>
       <c r="N19">
-        <v>0.000819672131147541</v>
+        <v>0.0007968127490039841</v>
       </c>
       <c r="O19">
-        <v>0.06885245901639345</v>
+        <v>0.06852589641434263</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1139344262295082</v>
+        <v>0.1131474103585657</v>
       </c>
     </row>
   </sheetData>
